--- a/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
+++ b/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
@@ -5,13 +5,13 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について\②sv23提出\1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹\4_開発後シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89395DB0-5E78-4C06-B849-81CA27220F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC78CEE1-BD44-4394-876C-72E0A30FD0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="b3KzDT8bLRYGaw6dLjNEp/df6epNFMbH3hX+sS6LCh5Fuc5osHJhXuTatMdWixCgYOtod8m9NK15zQTatqNPlA==" workbookSaltValue="nYVBgW6QEw/NPiSraXM6lw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="0" windowWidth="14610" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空欄チェック" sheetId="8" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
   <si>
     <t>クラス</t>
     <phoneticPr fontId="1"/>
@@ -3043,6 +3043,316 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3089,316 +3399,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
     </xf>
@@ -3410,22 +3410,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3442,6 +3426,22 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4165,7 +4165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4197,7 +4197,7 @@
       <c r="C4" s="59"/>
       <c r="D4" s="54" t="str">
         <f>IF( COUNTIF($D$5:$D$12,"NG") &gt;0, "NG", "OK")</f>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="19.5" thickTop="1">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="D8" s="48" t="str">
         <f>IF(AND(COUNTA(開発情報!A8:A17) = COUNTA(開発情報!A8:A17,開発情報!E8:E17, 開発情報!K8:K17,開発情報!U8:U17)/4, COUNTA(開発情報!S8:T17)=1),"OK","NG")</f>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -4413,8 +4413,8 @@
   </sheetPr>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11:V11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4424,950 +4424,990 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="108" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A2" s="111">
+      <c r="A2" s="112">
         <v>1112</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="122" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="124"/>
+      <c r="F2" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="122"/>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="126" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="124" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="126"/>
     </row>
     <row r="4" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="108" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="111"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="122" t="s">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="120" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="122"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="126" t="s">
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="124" t="s">
+      <c r="E6" s="128"/>
+      <c r="F6" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="126"/>
     </row>
     <row r="7" spans="1:22" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134" t="s">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134" t="s">
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="134"/>
-      <c r="U7" s="134" t="s">
+      <c r="T7" s="66"/>
+      <c r="U7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="135"/>
+      <c r="V7" s="104"/>
     </row>
     <row r="8" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="138" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="158" t="s">
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="156" t="s">
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="T8" s="157"/>
-      <c r="U8" s="136" t="s">
+      <c r="T8" s="68"/>
+      <c r="U8" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="V8" s="137"/>
+      <c r="V8" s="106"/>
     </row>
     <row r="9" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="85" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="82" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="91"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="V9" s="79"/>
     </row>
     <row r="10" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="85" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="82" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="90"/>
-      <c r="V10" s="91"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="V10" s="79"/>
     </row>
     <row r="11" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="85" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="82" t="s">
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="90" t="s">
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="V11" s="91"/>
+      <c r="V11" s="79"/>
     </row>
     <row r="12" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="91"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="79"/>
     </row>
     <row r="13" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="91"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="79"/>
     </row>
     <row r="14" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="91"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="79"/>
     </row>
     <row r="15" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="91"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="79"/>
     </row>
     <row r="16" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="91"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="79"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" thickBot="1">
-      <c r="A17" s="139"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="152"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="81"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="132"/>
     </row>
     <row r="18" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
     </row>
     <row r="19" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A19" s="154"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="154"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
     </row>
     <row r="20" spans="1:23" ht="7.5" customHeight="1">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="64"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="148"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="94"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="66" t="s">
+      <c r="I21" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="68"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="152"/>
       <c r="V21" s="22"/>
-      <c r="W21" s="64"/>
+      <c r="W21" s="148"/>
     </row>
     <row r="22" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="64"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="148"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="94"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
       <c r="H23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
       <c r="V23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="64"/>
+      <c r="W23" s="148"/>
     </row>
     <row r="24" spans="1:23" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="64"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="154"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="148"/>
     </row>
     <row r="25" spans="1:23" ht="60" customHeight="1" thickBot="1">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="103"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="143"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="144"/>
     </row>
     <row r="26" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="130"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="100"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="144"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="82"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="146"/>
-      <c r="V28" s="147"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="85"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="146"/>
-      <c r="T29" s="146"/>
-      <c r="U29" s="146"/>
-      <c r="V29" s="147"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="85"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="145"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="147"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="85"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="145"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="147"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="85"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="145"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="146"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="147"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="85"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="145"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="147"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="85"/>
     </row>
     <row r="34" spans="1:22" ht="19.5" thickBot="1">
-      <c r="A34" s="148"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="150"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="88"/>
     </row>
     <row r="35" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GBOP26XcFiiC13xf/GH/cCwCz/IhnyIKKbn+zKTA4GYROX6yAJvMsw0cvBS9hcdsEhS08d8je9Rg0W5BlTwcrw==" saltValue="4XgZ2bzzA2rr2K5jYT3Lqw==" spinCount="100000" sheet="1" insertRows="0"/>
   <mergeCells count="82">
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="I23:U23"/>
+    <mergeCell ref="I21:U21"/>
+    <mergeCell ref="H24:V24"/>
+    <mergeCell ref="H22:V22"/>
+    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="A20:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:V25"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:V1"/>
+    <mergeCell ref="D4:V4"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="F5:V5"/>
+    <mergeCell ref="F2:V2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F6:V6"/>
+    <mergeCell ref="F3:V3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A26:V26"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="K7:R7"/>
     <mergeCell ref="A27:V34"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
@@ -5384,57 +5424,21 @@
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="K11:R11"/>
-    <mergeCell ref="A26:V26"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:V1"/>
-    <mergeCell ref="D4:V4"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="F5:V5"/>
-    <mergeCell ref="F2:V2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F6:V6"/>
-    <mergeCell ref="F3:V3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="A20:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:V25"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="I23:U23"/>
-    <mergeCell ref="I21:U21"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U11:V11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H23 V23">
@@ -5866,7 +5870,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -5880,13 +5884,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="25.9" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -5896,69 +5900,69 @@
         <f>IF(NOT(ISBLANK(開発情報!A2)),開発情報!A2, "")</f>
         <v>1112</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="168"/>
+      <c r="D2" s="174"/>
       <c r="E2" s="44" t="str">
         <f>IF( NOT(ISBLANK(開発情報!F3)), 開発情報!F3, "" )</f>
         <v>Balloon Glide</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="166"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="170"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169" t="s">
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="169"/>
+      <c r="E9" s="175"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10" s="6"/>
@@ -5972,59 +5976,59 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="170"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
     </row>
     <row r="12" spans="1:5" ht="63" customHeight="1">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="300" customHeight="1">
-      <c r="A13" s="174"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
+      <c r="A13" s="168"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="170"/>
     </row>
     <row r="14" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
     </row>
     <row r="15" spans="1:5" ht="300" customHeight="1">
-      <c r="A15" s="174"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="176"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
     </row>
     <row r="16" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
     </row>
     <row r="17" spans="1:5" ht="251.25" customHeight="1">
-      <c r="A17" s="174"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
+      <c r="A17" s="168"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="170"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
@@ -6036,6 +6040,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S0ZrTzjw/twMvr7iIM3T0C489oMc1M0vZSsHlIiOWjFzgSREQBI+8eYy/Fi/9+yNXZ55f/YXULZcs4tADhnacg==" saltValue="myZW4jpSKHSr4gTU68YIWw==" spinCount="100000" sheet="1" formatCells="0" formatRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A4:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
@@ -6043,13 +6054,6 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A4:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
+++ b/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について\②sv23提出\1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹\4_開発後シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC78CEE1-BD44-4394-876C-72E0A30FD0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB306FEB-D8AF-40EE-A0F1-410F11E98E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="b3KzDT8bLRYGaw6dLjNEp/df6epNFMbH3hX+sS6LCh5Fuc5osHJhXuTatMdWixCgYOtod8m9NK15zQTatqNPlA==" workbookSaltValue="nYVBgW6QEw/NPiSraXM6lw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="0" windowWidth="14610" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="0" windowWidth="14610" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空欄チェック" sheetId="8" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="129">
   <si>
     <t>クラス</t>
     <phoneticPr fontId="1"/>
@@ -1822,6 +1822,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -3043,14 +3046,338 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3060,14 +3387,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -3083,322 +3402,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
     </xf>
@@ -3410,6 +3413,22 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3426,22 +3445,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4165,7 +4168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4413,8 +4416,8 @@
   </sheetPr>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4424,946 +4427,998 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="109" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="111"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="110"/>
     </row>
     <row r="2" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A2" s="112">
+      <c r="A2" s="111">
         <v>1112</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="123" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="121" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="122"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="121"/>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="127" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="125" t="s">
+      <c r="E3" s="127"/>
+      <c r="F3" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="126"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="125"/>
     </row>
     <row r="4" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="109" t="s">
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="111"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="110"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="123" t="s">
+      <c r="A5" s="114"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="121" t="s">
+      <c r="E5" s="123"/>
+      <c r="F5" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="122"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="118"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="127" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="125" t="s">
+      <c r="E6" s="127"/>
+      <c r="F6" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="126"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="125"/>
     </row>
     <row r="7" spans="1:22" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66" t="s">
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66" t="s">
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66" t="s">
+      <c r="T7" s="134"/>
+      <c r="U7" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="104"/>
+      <c r="V7" s="135"/>
     </row>
     <row r="8" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="107" t="s">
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="71" t="s">
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="67" t="s">
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="156" t="s">
         <v>122</v>
       </c>
-      <c r="T8" s="68"/>
-      <c r="U8" s="105" t="s">
+      <c r="T8" s="157"/>
+      <c r="U8" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="V8" s="106"/>
+      <c r="V8" s="137"/>
     </row>
     <row r="9" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="75" t="s">
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="78" t="s">
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="V9" s="91"/>
+    </row>
+    <row r="10" spans="1:22" ht="25.15" customHeight="1">
+      <c r="A10" s="104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="V10" s="91"/>
+    </row>
+    <row r="11" spans="1:22" ht="25.15" customHeight="1">
+      <c r="A11" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="V9" s="79"/>
-    </row>
-    <row r="10" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A10" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="V10" s="79"/>
-    </row>
-    <row r="11" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A11" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="V11" s="79"/>
+      <c r="V11" s="91"/>
     </row>
     <row r="12" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="79"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="91"/>
     </row>
     <row r="13" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="79"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="91"/>
     </row>
     <row r="14" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="79"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="91"/>
     </row>
     <row r="15" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="79"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="91"/>
     </row>
     <row r="16" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="79"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="91"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" thickBot="1">
-      <c r="A17" s="108"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="132"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="81"/>
     </row>
     <row r="18" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="155"/>
     </row>
     <row r="19" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
     </row>
     <row r="20" spans="1:23" ht="7.5" customHeight="1">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="148"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="64"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="135"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="150" t="s">
+      <c r="I21" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="152"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="68"/>
       <c r="V21" s="22"/>
-      <c r="W21" s="148"/>
+      <c r="W21" s="64"/>
     </row>
     <row r="22" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A22" s="135"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="148"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="64"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="135"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="149"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
       <c r="V23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="148"/>
+      <c r="W23" s="64"/>
     </row>
     <row r="24" spans="1:23" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A24" s="137"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="148"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="64"/>
     </row>
     <row r="25" spans="1:23" ht="60" customHeight="1" thickBot="1">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="143"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="144"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="103"/>
     </row>
     <row r="26" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="100"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="130"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="82"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="144"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="85"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="146"/>
+      <c r="V28" s="147"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="85"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="146"/>
+      <c r="T29" s="146"/>
+      <c r="U29" s="146"/>
+      <c r="V29" s="147"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="85"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="146"/>
+      <c r="V30" s="147"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="83"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="85"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="146"/>
+      <c r="V31" s="147"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="85"/>
+      <c r="A32" s="145"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="146"/>
+      <c r="U32" s="146"/>
+      <c r="V32" s="147"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="83"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="85"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="146"/>
+      <c r="U33" s="146"/>
+      <c r="V33" s="147"/>
     </row>
     <row r="34" spans="1:22" ht="19.5" thickBot="1">
-      <c r="A34" s="86"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="88"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="149"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="150"/>
     </row>
     <row r="35" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="130"/>
-      <c r="T35" s="130"/>
-      <c r="U35" s="130"/>
-      <c r="V35" s="130"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GBOP26XcFiiC13xf/GH/cCwCz/IhnyIKKbn+zKTA4GYROX6yAJvMsw0cvBS9hcdsEhS08d8je9Rg0W5BlTwcrw==" saltValue="4XgZ2bzzA2rr2K5jYT3Lqw==" spinCount="100000" sheet="1" insertRows="0"/>
   <mergeCells count="82">
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="I23:U23"/>
-    <mergeCell ref="I21:U21"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="A27:V34"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="A26:V26"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:V1"/>
+    <mergeCell ref="D4:V4"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="F5:V5"/>
+    <mergeCell ref="F2:V2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F6:V6"/>
+    <mergeCell ref="F3:V3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A35:V35"/>
     <mergeCell ref="U17:V17"/>
     <mergeCell ref="K13:R13"/>
@@ -5380,65 +5435,13 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="K16:R16"/>
     <mergeCell ref="K17:R17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:V1"/>
-    <mergeCell ref="D4:V4"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="F5:V5"/>
-    <mergeCell ref="F2:V2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F6:V6"/>
-    <mergeCell ref="F3:V3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A26:V26"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="A27:V34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="I23:U23"/>
+    <mergeCell ref="I21:U21"/>
+    <mergeCell ref="H24:V24"/>
+    <mergeCell ref="H22:V22"/>
+    <mergeCell ref="H20:V20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H23 V23">
@@ -5884,13 +5887,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="25.9" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -5900,69 +5903,69 @@
         <f>IF(NOT(ISBLANK(開発情報!A2)),開発情報!A2, "")</f>
         <v>1112</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="174"/>
+      <c r="D2" s="168"/>
       <c r="E2" s="44" t="str">
         <f>IF( NOT(ISBLANK(開発情報!F3)), 開発情報!F3, "" )</f>
         <v>Balloon Glide</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="172"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="172"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="172"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="171"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175" t="s">
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="175"/>
+      <c r="E9" s="169"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10" s="6"/>
@@ -5976,59 +5979,59 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="171"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
     </row>
     <row r="12" spans="1:5" ht="63" customHeight="1">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
     </row>
     <row r="13" spans="1:5" ht="300" customHeight="1">
-      <c r="A13" s="168"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="170"/>
+      <c r="A13" s="174"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="176"/>
     </row>
     <row r="14" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
     </row>
     <row r="15" spans="1:5" ht="300" customHeight="1">
-      <c r="A15" s="168"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
+      <c r="A15" s="174"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="176"/>
     </row>
     <row r="16" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
     </row>
     <row r="17" spans="1:5" ht="251.25" customHeight="1">
-      <c r="A17" s="168"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="170"/>
+      <c r="A17" s="174"/>
+      <c r="B17" s="175"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="176"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
@@ -6040,6 +6043,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S0ZrTzjw/twMvr7iIM3T0C489oMc1M0vZSsHlIiOWjFzgSREQBI+8eYy/Fi/9+yNXZ55f/YXULZcs4tADhnacg==" saltValue="myZW4jpSKHSr4gTU68YIWw==" spinCount="100000" sheet="1" formatCells="0" formatRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A4:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:D2"/>
@@ -6047,13 +6057,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
+++ b/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について\②sv23提出\1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹\4_開発後シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB306FEB-D8AF-40EE-A0F1-410F11E98E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CB7DFD-0939-412F-A70B-99CFCDF81E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="b3KzDT8bLRYGaw6dLjNEp/df6epNFMbH3hX+sS6LCh5Fuc5osHJhXuTatMdWixCgYOtod8m9NK15zQTatqNPlA==" workbookSaltValue="nYVBgW6QEw/NPiSraXM6lw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="0" windowWidth="14610" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8340" yWindow="0" windowWidth="14610" windowHeight="15480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空欄チェック" sheetId="8" r:id="rId1"/>
@@ -3046,6 +3046,316 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3092,316 +3402,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
     </xf>
@@ -3413,22 +3413,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3445,6 +3429,22 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="D19" s="51" t="str">
         <f>IF( ISBLANK(振り返り!A10), "NG","OK")</f>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D20" s="48" t="str">
         <f>IF( ISBLANK(振り返り!D10), "NG","OK")</f>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -4416,7 +4416,7 @@
   </sheetPr>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U11" sqref="U11:V11"/>
     </sheetView>
   </sheetViews>
@@ -4427,954 +4427,990 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="108" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A2" s="111">
+      <c r="A2" s="112">
         <v>1112</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="122" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="124"/>
+      <c r="F2" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="122"/>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="126" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="124" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="126"/>
     </row>
     <row r="4" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="108" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="111"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="122" t="s">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="120" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="122"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="126" t="s">
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="124" t="s">
+      <c r="E6" s="128"/>
+      <c r="F6" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="126"/>
     </row>
     <row r="7" spans="1:22" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134" t="s">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134" t="s">
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="134"/>
-      <c r="U7" s="134" t="s">
+      <c r="T7" s="66"/>
+      <c r="U7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="135"/>
+      <c r="V7" s="104"/>
     </row>
     <row r="8" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="138" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="158" t="s">
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="156" t="s">
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="T8" s="157"/>
-      <c r="U8" s="136" t="s">
+      <c r="T8" s="68"/>
+      <c r="U8" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="V8" s="137"/>
+      <c r="V8" s="106"/>
     </row>
     <row r="9" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="85" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="82" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="90" t="s">
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="V9" s="91"/>
+      <c r="V9" s="79"/>
     </row>
     <row r="10" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="85" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="82" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="90" t="s">
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="V10" s="91"/>
+      <c r="V10" s="79"/>
     </row>
     <row r="11" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="85" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="82" t="s">
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="90" t="s">
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="V11" s="91"/>
+      <c r="V11" s="79"/>
     </row>
     <row r="12" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="91"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="79"/>
     </row>
     <row r="13" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="91"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="79"/>
     </row>
     <row r="14" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="91"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="79"/>
     </row>
     <row r="15" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="91"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="79"/>
     </row>
     <row r="16" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="91"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="79"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" thickBot="1">
-      <c r="A17" s="139"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="152"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="81"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="132"/>
     </row>
     <row r="18" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
     </row>
     <row r="19" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A19" s="154"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="154"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
     </row>
     <row r="20" spans="1:23" ht="7.5" customHeight="1">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="64"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="148"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="94"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="66" t="s">
+      <c r="I21" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="68"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="152"/>
       <c r="V21" s="22"/>
-      <c r="W21" s="64"/>
+      <c r="W21" s="148"/>
     </row>
     <row r="22" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="64"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="148"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="94"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
       <c r="H23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
       <c r="V23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="64"/>
+      <c r="W23" s="148"/>
     </row>
     <row r="24" spans="1:23" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="64"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="154"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="148"/>
     </row>
     <row r="25" spans="1:23" ht="60" customHeight="1" thickBot="1">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="103"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="143"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="144"/>
     </row>
     <row r="26" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="130"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="100"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="144"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="82"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="146"/>
-      <c r="V28" s="147"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="85"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="146"/>
-      <c r="T29" s="146"/>
-      <c r="U29" s="146"/>
-      <c r="V29" s="147"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="85"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="145"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="147"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="85"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="145"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="147"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="85"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="145"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="146"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="147"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="85"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="145"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="147"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="85"/>
     </row>
     <row r="34" spans="1:22" ht="19.5" thickBot="1">
-      <c r="A34" s="148"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="150"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="88"/>
     </row>
     <row r="35" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GBOP26XcFiiC13xf/GH/cCwCz/IhnyIKKbn+zKTA4GYROX6yAJvMsw0cvBS9hcdsEhS08d8je9Rg0W5BlTwcrw==" saltValue="4XgZ2bzzA2rr2K5jYT3Lqw==" spinCount="100000" sheet="1" insertRows="0"/>
   <mergeCells count="82">
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="I23:U23"/>
+    <mergeCell ref="I21:U21"/>
+    <mergeCell ref="H24:V24"/>
+    <mergeCell ref="H22:V22"/>
+    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="A20:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:V25"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:V1"/>
+    <mergeCell ref="D4:V4"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="F5:V5"/>
+    <mergeCell ref="F2:V2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F6:V6"/>
+    <mergeCell ref="F3:V3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A26:V26"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="K7:R7"/>
     <mergeCell ref="A27:V34"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
@@ -5391,57 +5427,21 @@
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="K11:R11"/>
-    <mergeCell ref="A26:V26"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:V1"/>
-    <mergeCell ref="D4:V4"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="F5:V5"/>
-    <mergeCell ref="F2:V2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F6:V6"/>
-    <mergeCell ref="F3:V3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="A20:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:V25"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="I23:U23"/>
-    <mergeCell ref="I21:U21"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U11:V11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H23 V23">
@@ -5873,8 +5873,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5887,13 +5887,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="25.9" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -5903,135 +5903,139 @@
         <f>IF(NOT(ISBLANK(開発情報!A2)),開発情報!A2, "")</f>
         <v>1112</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="168"/>
+      <c r="D2" s="174"/>
       <c r="E2" s="44" t="str">
         <f>IF( NOT(ISBLANK(開発情報!F3)), 開発情報!F3, "" )</f>
         <v>Balloon Glide</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="166"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
+      <c r="E5" s="172"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
+      <c r="E7" s="172"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="170"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169" t="s">
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="169"/>
+      <c r="E9" s="175"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <v>90</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="43"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6">
+        <v>90</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="170"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
     </row>
     <row r="12" spans="1:5" ht="63" customHeight="1">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="300" customHeight="1">
-      <c r="A13" s="174"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
+      <c r="A13" s="168"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="170"/>
     </row>
     <row r="14" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
     </row>
     <row r="15" spans="1:5" ht="300" customHeight="1">
-      <c r="A15" s="174"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="176"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
     </row>
     <row r="16" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
     </row>
     <row r="17" spans="1:5" ht="251.25" customHeight="1">
-      <c r="A17" s="174"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
+      <c r="A17" s="168"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="170"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
@@ -6043,6 +6047,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S0ZrTzjw/twMvr7iIM3T0C489oMc1M0vZSsHlIiOWjFzgSREQBI+8eYy/Fi/9+yNXZ55f/YXULZcs4tADhnacg==" saltValue="myZW4jpSKHSr4gTU68YIWw==" spinCount="100000" sheet="1" formatCells="0" formatRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A4:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
@@ -6050,13 +6061,6 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A4:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
+++ b/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について\②sv23提出\1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹\4_開発後シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CB7DFD-0939-412F-A70B-99CFCDF81E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DA570-E703-4715-9D4A-B109C3762969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="b3KzDT8bLRYGaw6dLjNEp/df6epNFMbH3hX+sS6LCh5Fuc5osHJhXuTatMdWixCgYOtod8m9NK15zQTatqNPlA==" workbookSaltValue="nYVBgW6QEw/NPiSraXM6lw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="0" windowWidth="14610" windowHeight="15480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空欄チェック" sheetId="8" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
   <si>
     <t>クラス</t>
     <phoneticPr fontId="1"/>
@@ -1826,6 +1826,203 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>企画段階で制作期限と、自分たちの今のレベルで本当に作れるのかということを考慮したうえでゲームを企画する
+作りたいゲームと独自性があるゲームのバランスをとれるように客観的に自分たちの企画内容を見る</t>
+    <rPh sb="0" eb="4">
+      <t>キカクダンカイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>セイサクキゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>コウリョ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>ドクジセイ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>キャッカンテキ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="91" eb="95">
+      <t>キカクナイヨウ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">制作中に当初予定していた企画の内容から中身を削ることが多かった
+要因・・企画段階で制作期間のことを考えずにおもしろそうな内容を詰め込みすぎてしまっていた
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+ゲームの内容が単純すぎた
+要因・・3Dっぽいゲームを作るというチーム内で共有していた概念にとらわれすぎて、独自性のことをあまり考えずに作ってしまっていた</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>セイサクチュウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>トウショヨテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ケズ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>キカクダンカイ</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>セイサクキカン</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>タンジュン</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ガイネン</t>
+    </rPh>
+    <rPh sb="131" eb="134">
+      <t>ドクジセイ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="159" eb="161">
+      <t>スギタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Margeの際にあまりエラーを発生させなかったこと
+要因・・Githubを使用して制作した・授業内だけでなくグループLINEでも常に連携を取り、それぞれがやっている作業を共有できていた
+余裕をもってゲームを完成させたこと
+要因・・制作スケジュールをチーム内で共有できていた</t>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ジュギョウナイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>レンケイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ヨウイン</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1834,7 +2031,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2190,6 +2387,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2859,7 +3063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3046,14 +3250,338 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3063,14 +3591,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -3086,322 +3606,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
     </xf>
@@ -3413,6 +3617,22 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3430,21 +3650,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4168,7 +4376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4189,7 +4397,7 @@
       <c r="C2" s="61"/>
       <c r="D2" s="56" t="str">
         <f>IF( COUNTIF($D$4:$D$24,"NG") &gt;0, "有り", "無し")</f>
-        <v>有り</v>
+        <v>無し</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="19.5" thickBot="1"/>
@@ -4325,7 +4533,7 @@
       <c r="C18" s="63"/>
       <c r="D18" s="54" t="str">
         <f>IF( COUNTIF($D$19:$D$24,"NG") &gt;0, "NG", "OK")</f>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="19.5" thickTop="1">
@@ -4355,7 +4563,7 @@
       </c>
       <c r="D21" s="48" t="str">
         <f>IF( ISBLANK(振り返り!A13), "NG","OK")</f>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -4365,7 +4573,7 @@
       </c>
       <c r="D22" s="48" t="str">
         <f>IF( ISBLANK(振り返り!A15), "NG","OK")</f>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="19.5" thickBot="1">
@@ -4375,7 +4583,7 @@
       </c>
       <c r="D23" s="45" t="str">
         <f>IF( ISBLANK(振り返り!A17), "NG","OK")</f>
-        <v>NG</v>
+        <v>OK</v>
       </c>
     </row>
   </sheetData>
@@ -4427,946 +4635,998 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="109" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="110"/>
-      <c r="V1" s="111"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="110"/>
     </row>
     <row r="2" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A2" s="112">
+      <c r="A2" s="111">
         <v>1112</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="123" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="121" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="122"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="121"/>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="115"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="127" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="125" t="s">
+      <c r="E3" s="127"/>
+      <c r="F3" s="124" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="126"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+      <c r="S3" s="124"/>
+      <c r="T3" s="124"/>
+      <c r="U3" s="124"/>
+      <c r="V3" s="125"/>
     </row>
     <row r="4" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="109" t="s">
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="111"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="110"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="123" t="s">
+      <c r="A5" s="114"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="121" t="s">
+      <c r="E5" s="123"/>
+      <c r="F5" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="122"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="121"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="118"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="127" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="118"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="128"/>
-      <c r="F6" s="125" t="s">
+      <c r="E6" s="127"/>
+      <c r="F6" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
-      <c r="O6" s="125"/>
-      <c r="P6" s="125"/>
-      <c r="Q6" s="125"/>
-      <c r="R6" s="125"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="125"/>
-      <c r="U6" s="125"/>
-      <c r="V6" s="126"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="125"/>
     </row>
     <row r="7" spans="1:22" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66" t="s">
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66" t="s">
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66" t="s">
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="134"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="134"/>
+      <c r="R7" s="134"/>
+      <c r="S7" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66" t="s">
+      <c r="T7" s="134"/>
+      <c r="U7" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="104"/>
+      <c r="V7" s="135"/>
     </row>
     <row r="8" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="107" t="s">
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="71" t="s">
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="67" t="s">
+      <c r="L8" s="159"/>
+      <c r="M8" s="159"/>
+      <c r="N8" s="159"/>
+      <c r="O8" s="159"/>
+      <c r="P8" s="159"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="156" t="s">
         <v>122</v>
       </c>
-      <c r="T8" s="68"/>
-      <c r="U8" s="105" t="s">
+      <c r="T8" s="157"/>
+      <c r="U8" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="V8" s="106"/>
+      <c r="V8" s="137"/>
     </row>
     <row r="9" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="75" t="s">
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="78" t="s">
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="V9" s="79"/>
+      <c r="V9" s="91"/>
     </row>
     <row r="10" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="104" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92" t="s">
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="90"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="75" t="s">
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="78" t="s">
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="V10" s="79"/>
+      <c r="V10" s="91"/>
     </row>
     <row r="11" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="75" t="s">
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="82" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="78" t="s">
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="90" t="s">
         <v>127</v>
       </c>
-      <c r="V11" s="79"/>
+      <c r="V11" s="91"/>
     </row>
     <row r="12" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="78"/>
-      <c r="V12" s="79"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="91"/>
     </row>
     <row r="13" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A13" s="89"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="79"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+      <c r="P13" s="83"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="88"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="90"/>
+      <c r="V13" s="91"/>
     </row>
     <row r="14" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="79"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="83"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="88"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="90"/>
+      <c r="V14" s="91"/>
     </row>
     <row r="15" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="79"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="83"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="91"/>
     </row>
     <row r="16" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="79"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="90"/>
+      <c r="V16" s="91"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" thickBot="1">
-      <c r="A17" s="108"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="94"/>
-      <c r="U17" s="131"/>
-      <c r="V17" s="132"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="106"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="106"/>
+      <c r="O17" s="106"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="106"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="152"/>
+      <c r="U17" s="80"/>
+      <c r="V17" s="81"/>
     </row>
     <row r="18" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="155"/>
     </row>
     <row r="19" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
     </row>
     <row r="20" spans="1:23" ht="7.5" customHeight="1">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="148"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="64"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="135"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="136"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="150" t="s">
+      <c r="I21" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
-      <c r="Q21" s="151"/>
-      <c r="R21" s="151"/>
-      <c r="S21" s="151"/>
-      <c r="T21" s="151"/>
-      <c r="U21" s="152"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="68"/>
       <c r="V21" s="22"/>
-      <c r="W21" s="148"/>
+      <c r="W21" s="64"/>
     </row>
     <row r="22" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A22" s="135"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="157"/>
-      <c r="S22" s="157"/>
-      <c r="T22" s="157"/>
-      <c r="U22" s="157"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="148"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="64"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="135"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
       <c r="H23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="149"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
-      <c r="L23" s="149"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="149"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="149"/>
-      <c r="Q23" s="149"/>
-      <c r="R23" s="149"/>
-      <c r="S23" s="149"/>
-      <c r="T23" s="149"/>
-      <c r="U23" s="149"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
       <c r="V23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="148"/>
+      <c r="W23" s="64"/>
     </row>
     <row r="24" spans="1:23" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A24" s="137"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="148"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="64"/>
     </row>
     <row r="25" spans="1:23" ht="60" customHeight="1" thickBot="1">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="143"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="144"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="103"/>
     </row>
     <row r="26" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="100"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="129"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="129"/>
+      <c r="T26" s="129"/>
+      <c r="U26" s="129"/>
+      <c r="V26" s="130"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="82"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="143"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="144"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="83"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="84"/>
-      <c r="V28" s="85"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="146"/>
+      <c r="T28" s="146"/>
+      <c r="U28" s="146"/>
+      <c r="V28" s="147"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="83"/>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="84"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="84"/>
-      <c r="S29" s="84"/>
-      <c r="T29" s="84"/>
-      <c r="U29" s="84"/>
-      <c r="V29" s="85"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="146"/>
+      <c r="T29" s="146"/>
+      <c r="U29" s="146"/>
+      <c r="V29" s="147"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="83"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="84"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="85"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="146"/>
+      <c r="T30" s="146"/>
+      <c r="U30" s="146"/>
+      <c r="V30" s="147"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="83"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="84"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="84"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="84"/>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="85"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="146"/>
+      <c r="V31" s="147"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="83"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="84"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="84"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="84"/>
-      <c r="U32" s="84"/>
-      <c r="V32" s="85"/>
+      <c r="A32" s="145"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="146"/>
+      <c r="T32" s="146"/>
+      <c r="U32" s="146"/>
+      <c r="V32" s="147"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="83"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="84"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="84"/>
-      <c r="Q33" s="84"/>
-      <c r="R33" s="84"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="84"/>
-      <c r="U33" s="84"/>
-      <c r="V33" s="85"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="146"/>
+      <c r="T33" s="146"/>
+      <c r="U33" s="146"/>
+      <c r="V33" s="147"/>
     </row>
     <row r="34" spans="1:22" ht="19.5" thickBot="1">
-      <c r="A34" s="86"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
-      <c r="U34" s="87"/>
-      <c r="V34" s="88"/>
+      <c r="A34" s="148"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="149"/>
+      <c r="P34" s="149"/>
+      <c r="Q34" s="149"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="150"/>
     </row>
     <row r="35" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="130"/>
-      <c r="M35" s="130"/>
-      <c r="N35" s="130"/>
-      <c r="O35" s="130"/>
-      <c r="P35" s="130"/>
-      <c r="Q35" s="130"/>
-      <c r="R35" s="130"/>
-      <c r="S35" s="130"/>
-      <c r="T35" s="130"/>
-      <c r="U35" s="130"/>
-      <c r="V35" s="130"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GBOP26XcFiiC13xf/GH/cCwCz/IhnyIKKbn+zKTA4GYROX6yAJvMsw0cvBS9hcdsEhS08d8je9Rg0W5BlTwcrw==" saltValue="4XgZ2bzzA2rr2K5jYT3Lqw==" spinCount="100000" sheet="1" insertRows="0"/>
   <mergeCells count="82">
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="I23:U23"/>
-    <mergeCell ref="I21:U21"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="A27:V34"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="A26:V26"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:V1"/>
+    <mergeCell ref="D4:V4"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="F5:V5"/>
+    <mergeCell ref="F2:V2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F6:V6"/>
+    <mergeCell ref="F3:V3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A35:V35"/>
     <mergeCell ref="U17:V17"/>
     <mergeCell ref="K13:R13"/>
@@ -5383,65 +5643,13 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="K16:R16"/>
     <mergeCell ref="K17:R17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:V1"/>
-    <mergeCell ref="D4:V4"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="F5:V5"/>
-    <mergeCell ref="F2:V2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F6:V6"/>
-    <mergeCell ref="F3:V3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A26:V26"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="A27:V34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="I23:U23"/>
+    <mergeCell ref="I21:U21"/>
+    <mergeCell ref="H24:V24"/>
+    <mergeCell ref="H22:V22"/>
+    <mergeCell ref="H20:V20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H23 V23">
@@ -5873,7 +6081,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
@@ -5887,13 +6095,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="25.9" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -5903,69 +6111,69 @@
         <f>IF(NOT(ISBLANK(開発情報!A2)),開発情報!A2, "")</f>
         <v>1112</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="174"/>
+      <c r="D2" s="168"/>
       <c r="E2" s="44" t="str">
         <f>IF( NOT(ISBLANK(開発情報!F3)), 開発情報!F3, "" )</f>
         <v>Balloon Glide</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="176"/>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="172"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="172"/>
+      <c r="A5" s="166"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="172"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
+      <c r="A6" s="166"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="172"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="172"/>
+      <c r="A7" s="166"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="171"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="171"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175" t="s">
+      <c r="B9" s="169"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="175"/>
+      <c r="E9" s="169"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10" s="6">
@@ -5983,59 +6191,65 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="171"/>
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
+      <c r="A11" s="170"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
     </row>
     <row r="12" spans="1:5" ht="63" customHeight="1">
-      <c r="A12" s="167" t="s">
+      <c r="A12" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
     </row>
     <row r="13" spans="1:5" ht="300" customHeight="1">
-      <c r="A13" s="168"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="170"/>
+      <c r="A13" s="174" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="176"/>
     </row>
     <row r="14" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A14" s="167" t="s">
+      <c r="A14" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="173"/>
+      <c r="E14" s="173"/>
     </row>
     <row r="15" spans="1:5" ht="300" customHeight="1">
-      <c r="A15" s="168"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="170"/>
+      <c r="A15" s="177" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="176"/>
     </row>
     <row r="16" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="172" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
     </row>
     <row r="17" spans="1:5" ht="251.25" customHeight="1">
-      <c r="A17" s="168"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="170"/>
+      <c r="A17" s="174" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="175"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="176"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
@@ -6047,6 +6261,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S0ZrTzjw/twMvr7iIM3T0C489oMc1M0vZSsHlIiOWjFzgSREQBI+8eYy/Fi/9+yNXZ55f/YXULZcs4tADhnacg==" saltValue="myZW4jpSKHSr4gTU68YIWw==" spinCount="100000" sheet="1" formatCells="0" formatRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A4:E7"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:D2"/>
@@ -6054,13 +6275,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
+++ b/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について\②sv23提出\1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹\4_開発後シート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240039\Documents\GitHub\oneButton\▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について\②sv23提出\1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹\4_開発後シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DA570-E703-4715-9D4A-B109C3762969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E3401A-91CB-46C9-B7CB-73B825A420D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="b3KzDT8bLRYGaw6dLjNEp/df6epNFMbH3hX+sS6LCh5Fuc5osHJhXuTatMdWixCgYOtod8m9NK15zQTatqNPlA==" workbookSaltValue="nYVBgW6QEw/NPiSraXM6lw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -30,6 +30,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">振り返り!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1961,18 +1962,35 @@
       <t>カンガ</t>
     </rPh>
     <rPh sb="145" eb="146">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>スギタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Margeの際にあまりエラーを発生させなかったこと
+      <t>ツクスギタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Margeの際にあまりエラーを発生させなかったこと
 要因・・Githubを使用して制作した・授業内だけでなくグループLINEでも常に連携を取り、それぞれがやっている作業を共有できていた
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
 余裕をもってゲームを完成させたこと
 要因・・制作スケジュールをチーム内で共有できていた</t>
+    </r>
     <rPh sb="6" eb="7">
       <t>サイ</t>
     </rPh>
@@ -3250,6 +3268,316 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3296,316 +3624,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
     </xf>
@@ -3617,42 +3635,42 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4635,954 +4653,990 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="108" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A2" s="111">
+      <c r="A2" s="112">
         <v>1112</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="122" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="124"/>
+      <c r="F2" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="122"/>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="126" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="124" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="126"/>
     </row>
     <row r="4" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="108" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="111"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="122" t="s">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="120" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="122"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="126" t="s">
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="124" t="s">
+      <c r="E6" s="128"/>
+      <c r="F6" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="126"/>
     </row>
     <row r="7" spans="1:22" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134" t="s">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134" t="s">
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="134"/>
-      <c r="U7" s="134" t="s">
+      <c r="T7" s="66"/>
+      <c r="U7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="135"/>
+      <c r="V7" s="104"/>
     </row>
     <row r="8" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="138" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="158" t="s">
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="156" t="s">
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="T8" s="157"/>
-      <c r="U8" s="136" t="s">
+      <c r="T8" s="68"/>
+      <c r="U8" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="V8" s="137"/>
+      <c r="V8" s="106"/>
     </row>
     <row r="9" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="85" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="82" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="90" t="s">
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="V9" s="91"/>
+      <c r="V9" s="79"/>
     </row>
     <row r="10" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="85" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="82" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="90" t="s">
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="V10" s="91"/>
+      <c r="V10" s="79"/>
     </row>
     <row r="11" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="85" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="82" t="s">
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="90" t="s">
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="V11" s="91"/>
+      <c r="V11" s="79"/>
     </row>
     <row r="12" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="91"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="79"/>
     </row>
     <row r="13" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="91"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="79"/>
     </row>
     <row r="14" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="91"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="79"/>
     </row>
     <row r="15" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="91"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="79"/>
     </row>
     <row r="16" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="91"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="79"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" thickBot="1">
-      <c r="A17" s="139"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="152"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="81"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="132"/>
     </row>
     <row r="18" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
     </row>
     <row r="19" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A19" s="154"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="154"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
     </row>
     <row r="20" spans="1:23" ht="7.5" customHeight="1">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="64"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="148"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="94"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="66" t="s">
+      <c r="I21" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="68"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="152"/>
       <c r="V21" s="22"/>
-      <c r="W21" s="64"/>
+      <c r="W21" s="148"/>
     </row>
     <row r="22" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="64"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="148"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="94"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
       <c r="H23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
       <c r="V23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="64"/>
+      <c r="W23" s="148"/>
     </row>
     <row r="24" spans="1:23" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="64"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="154"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="148"/>
     </row>
     <row r="25" spans="1:23" ht="60" customHeight="1" thickBot="1">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="103"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="143"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="144"/>
     </row>
     <row r="26" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="130"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="100"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="144"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="82"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="146"/>
-      <c r="V28" s="147"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="85"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="146"/>
-      <c r="T29" s="146"/>
-      <c r="U29" s="146"/>
-      <c r="V29" s="147"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="85"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="145"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="147"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="85"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="145"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="147"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="85"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="145"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="146"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="147"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="85"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="145"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="147"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="85"/>
     </row>
     <row r="34" spans="1:22" ht="19.5" thickBot="1">
-      <c r="A34" s="148"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="150"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="88"/>
     </row>
     <row r="35" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GBOP26XcFiiC13xf/GH/cCwCz/IhnyIKKbn+zKTA4GYROX6yAJvMsw0cvBS9hcdsEhS08d8je9Rg0W5BlTwcrw==" saltValue="4XgZ2bzzA2rr2K5jYT3Lqw==" spinCount="100000" sheet="1" insertRows="0"/>
   <mergeCells count="82">
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="I23:U23"/>
+    <mergeCell ref="I21:U21"/>
+    <mergeCell ref="H24:V24"/>
+    <mergeCell ref="H22:V22"/>
+    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="A20:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:V25"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:V1"/>
+    <mergeCell ref="D4:V4"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="F5:V5"/>
+    <mergeCell ref="F2:V2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F6:V6"/>
+    <mergeCell ref="F3:V3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A26:V26"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="K7:R7"/>
     <mergeCell ref="A27:V34"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
@@ -5599,57 +5653,21 @@
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="K11:R11"/>
-    <mergeCell ref="A26:V26"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:V1"/>
-    <mergeCell ref="D4:V4"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="F5:V5"/>
-    <mergeCell ref="F2:V2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F6:V6"/>
-    <mergeCell ref="F3:V3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="A20:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:V25"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="I23:U23"/>
-    <mergeCell ref="I21:U21"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U11:V11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H23 V23">
@@ -6081,8 +6099,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6095,13 +6113,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="25.9" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -6111,69 +6129,69 @@
         <f>IF(NOT(ISBLANK(開発情報!A2)),開発情報!A2, "")</f>
         <v>1112</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="168"/>
+      <c r="D2" s="175"/>
       <c r="E2" s="44" t="str">
         <f>IF( NOT(ISBLANK(開発情報!F3)), 開発情報!F3, "" )</f>
         <v>Balloon Glide</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
+      <c r="A3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="166"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="170"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169" t="s">
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="169"/>
+      <c r="E9" s="176"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10" s="6">
@@ -6191,65 +6209,65 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="170"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
     </row>
     <row r="12" spans="1:5" ht="63" customHeight="1">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="300" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="172" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="170"/>
     </row>
     <row r="14" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
     </row>
     <row r="15" spans="1:5" ht="300" customHeight="1">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="176"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
     </row>
     <row r="16" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
     </row>
     <row r="17" spans="1:5" ht="251.25" customHeight="1">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="170"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
@@ -6261,6 +6279,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S0ZrTzjw/twMvr7iIM3T0C489oMc1M0vZSsHlIiOWjFzgSREQBI+8eYy/Fi/9+yNXZ55f/YXULZcs4tADhnacg==" saltValue="myZW4jpSKHSr4gTU68YIWw==" spinCount="100000" sheet="1" formatCells="0" formatRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A4:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
@@ -6268,13 +6293,6 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A4:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
+++ b/▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について/②sv23提出/1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹/4_開発後シート/1112_開発後シート.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2240021\Documents\GitHub\oneButton\▼【１年生／テーマ『ワンボタン』／2024年度後期／ゲーム制作】_提出について\②sv23提出\1112_GR1GA曽和真英_GR1GB正木漣_GR1GB河本勇輝_GI1A錦織光樹\4_開発後シート\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9DA570-E703-4715-9D4A-B109C3762969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{363D4716-3FCA-44A0-923B-6C43E2A274A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="b3KzDT8bLRYGaw6dLjNEp/df6epNFMbH3hX+sS6LCh5Fuc5osHJhXuTatMdWixCgYOtod8m9NK15zQTatqNPlA==" workbookSaltValue="nYVBgW6QEw/NPiSraXM6lw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空欄チェック" sheetId="8" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">振り返り!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1961,18 +1962,34 @@
       <t>カンガ</t>
     </rPh>
     <rPh sb="145" eb="146">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>スギタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Margeの際にあまりエラーを発生させなかったこと
-要因・・Githubを使用して制作した・授業内だけでなくグループLINEでも常に連携を取り、それぞれがやっている作業を共有できていた
+      <t>ツクスギタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Margeの際にあまりエラーを発生させなかったこと
+要因・・Githubを使用して制作した・授業内だけでなくグループLINEでも常に連携を取り、それぞれがやっている作業を共有できていた</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
 余裕をもってゲームを完成させたこと
 要因・・制作スケジュールをチーム内で共有できていた</t>
+    </r>
     <rPh sb="6" eb="7">
       <t>サイ</t>
     </rPh>
@@ -3250,6 +3267,316 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3296,316 +3623,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="48" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="47" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2" shrinkToFit="1"/>
     </xf>
@@ -3617,42 +3634,42 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4376,7 +4393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4624,7 +4641,7 @@
   </sheetPr>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="U11" sqref="U11:V11"/>
     </sheetView>
   </sheetViews>
@@ -4635,954 +4652,990 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="108" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="111"/>
     </row>
     <row r="2" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A2" s="111">
+      <c r="A2" s="112">
         <v>1112</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="122" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="123"/>
-      <c r="F2" s="120" t="s">
+      <c r="E2" s="124"/>
+      <c r="F2" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="120"/>
-      <c r="U2" s="120"/>
-      <c r="V2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="122"/>
     </row>
     <row r="3" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="114"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="126" t="s">
+      <c r="A3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="124" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="125" t="s">
         <v>110</v>
       </c>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
-      <c r="S3" s="124"/>
-      <c r="T3" s="124"/>
-      <c r="U3" s="124"/>
-      <c r="V3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="125"/>
+      <c r="Q3" s="125"/>
+      <c r="R3" s="125"/>
+      <c r="S3" s="125"/>
+      <c r="T3" s="125"/>
+      <c r="U3" s="125"/>
+      <c r="V3" s="126"/>
     </row>
     <row r="4" spans="1:22" ht="20.45" customHeight="1">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="108" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="111"/>
     </row>
     <row r="5" spans="1:22" ht="11.25" customHeight="1">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="122" t="s">
+      <c r="A5" s="115"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="120" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="121" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="120"/>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="122"/>
     </row>
     <row r="6" spans="1:22" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="126" t="s">
+      <c r="A6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="127"/>
-      <c r="F6" s="124" t="s">
+      <c r="E6" s="128"/>
+      <c r="F6" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="124"/>
-      <c r="V6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="125"/>
+      <c r="P6" s="125"/>
+      <c r="Q6" s="125"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="125"/>
+      <c r="T6" s="125"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="126"/>
     </row>
     <row r="7" spans="1:22" ht="20.45" customHeight="1" thickBot="1">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134" t="s">
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-      <c r="K7" s="134" t="s">
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="134"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="134"/>
-      <c r="R7" s="134"/>
-      <c r="S7" s="134" t="s">
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="T7" s="134"/>
-      <c r="U7" s="134" t="s">
+      <c r="T7" s="66"/>
+      <c r="U7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="V7" s="135"/>
+      <c r="V7" s="104"/>
     </row>
     <row r="8" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="138" t="s">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
-      <c r="K8" s="158" t="s">
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="L8" s="159"/>
-      <c r="M8" s="159"/>
-      <c r="N8" s="159"/>
-      <c r="O8" s="159"/>
-      <c r="P8" s="159"/>
-      <c r="Q8" s="159"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="156" t="s">
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="T8" s="157"/>
-      <c r="U8" s="136" t="s">
+      <c r="T8" s="68"/>
+      <c r="U8" s="105" t="s">
         <v>127</v>
       </c>
-      <c r="V8" s="137"/>
+      <c r="V8" s="106"/>
     </row>
     <row r="9" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="85" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="82" t="s">
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="90" t="s">
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="V9" s="91"/>
+      <c r="V9" s="79"/>
     </row>
     <row r="10" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="85" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="82" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="88"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="90" t="s">
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="V10" s="91"/>
+      <c r="V10" s="79"/>
     </row>
     <row r="11" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="85" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="82" t="s">
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="88"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="90" t="s">
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="V11" s="91"/>
+      <c r="V11" s="79"/>
     </row>
     <row r="12" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="83"/>
-      <c r="R12" s="84"/>
-      <c r="S12" s="88"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="91"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="79"/>
     </row>
     <row r="13" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="83"/>
-      <c r="P13" s="83"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="88"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="91"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="78"/>
+      <c r="V13" s="79"/>
     </row>
     <row r="14" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="88"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="90"/>
-      <c r="V14" s="91"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="79"/>
     </row>
     <row r="15" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="91"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="79"/>
     </row>
     <row r="16" spans="1:22" ht="25.15" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="90"/>
-      <c r="V16" s="91"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="79"/>
     </row>
     <row r="17" spans="1:23" ht="25.15" customHeight="1" thickBot="1">
-      <c r="A17" s="139"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="106"/>
-      <c r="N17" s="106"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="152"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="81"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="94"/>
+      <c r="U17" s="131"/>
+      <c r="V17" s="132"/>
     </row>
     <row r="18" spans="1:23" ht="31.5" customHeight="1">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="155"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="155"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="155"/>
-      <c r="K18" s="155"/>
-      <c r="L18" s="155"/>
-      <c r="M18" s="155"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="155"/>
-      <c r="P18" s="155"/>
-      <c r="Q18" s="155"/>
-      <c r="R18" s="155"/>
-      <c r="S18" s="155"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="155"/>
-      <c r="V18" s="155"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
     </row>
     <row r="19" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A19" s="154"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="154"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="154"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="154"/>
-      <c r="T19" s="154"/>
-      <c r="U19" s="154"/>
-      <c r="V19" s="154"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
     </row>
     <row r="20" spans="1:23" ht="7.5" customHeight="1">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="64"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="161"/>
+      <c r="W20" s="148"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="94"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
+      <c r="A21" s="135"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="136"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="136"/>
       <c r="H21" s="21"/>
-      <c r="I21" s="66" t="s">
+      <c r="I21" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="67"/>
-      <c r="U21" s="68"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="151"/>
+      <c r="N21" s="151"/>
+      <c r="O21" s="151"/>
+      <c r="P21" s="151"/>
+      <c r="Q21" s="151"/>
+      <c r="R21" s="151"/>
+      <c r="S21" s="151"/>
+      <c r="T21" s="151"/>
+      <c r="U21" s="152"/>
       <c r="V21" s="22"/>
-      <c r="W21" s="64"/>
+      <c r="W21" s="148"/>
     </row>
     <row r="22" spans="1:23" ht="6.75" customHeight="1">
-      <c r="A22" s="94"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="64"/>
+      <c r="A22" s="135"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="136"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="N22" s="157"/>
+      <c r="O22" s="157"/>
+      <c r="P22" s="157"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="157"/>
+      <c r="S22" s="157"/>
+      <c r="T22" s="157"/>
+      <c r="U22" s="157"/>
+      <c r="V22" s="158"/>
+      <c r="W22" s="148"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="94"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
       <c r="H23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
       <c r="V23" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="64"/>
+      <c r="W23" s="148"/>
     </row>
     <row r="24" spans="1:23" ht="7.5" customHeight="1" thickBot="1">
-      <c r="A24" s="96"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="64"/>
+      <c r="A24" s="137"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
+      <c r="L24" s="154"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="154"/>
+      <c r="U24" s="154"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="148"/>
     </row>
     <row r="25" spans="1:23" ht="60" customHeight="1" thickBot="1">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
-      <c r="V25" s="103"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="143"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="144"/>
     </row>
     <row r="26" spans="1:23" ht="19.5" thickBot="1">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="129"/>
-      <c r="T26" s="129"/>
-      <c r="U26" s="129"/>
-      <c r="V26" s="130"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="100"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="80" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="144"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="82"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="146"/>
-      <c r="V28" s="147"/>
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="S28" s="84"/>
+      <c r="T28" s="84"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="85"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="146"/>
-      <c r="T29" s="146"/>
-      <c r="U29" s="146"/>
-      <c r="V29" s="147"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="84"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="84"/>
+      <c r="S29" s="84"/>
+      <c r="T29" s="84"/>
+      <c r="U29" s="84"/>
+      <c r="V29" s="85"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="145"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="146"/>
-      <c r="V30" s="147"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="84"/>
+      <c r="S30" s="84"/>
+      <c r="T30" s="84"/>
+      <c r="U30" s="84"/>
+      <c r="V30" s="85"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="145"/>
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="146"/>
-      <c r="V31" s="147"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="84"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="84"/>
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="85"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="145"/>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="146"/>
-      <c r="U32" s="146"/>
-      <c r="V32" s="147"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+      <c r="S32" s="84"/>
+      <c r="T32" s="84"/>
+      <c r="U32" s="84"/>
+      <c r="V32" s="85"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="145"/>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="146"/>
-      <c r="T33" s="146"/>
-      <c r="U33" s="146"/>
-      <c r="V33" s="147"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+      <c r="S33" s="84"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="84"/>
+      <c r="V33" s="85"/>
     </row>
     <row r="34" spans="1:22" ht="19.5" thickBot="1">
-      <c r="A34" s="148"/>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="149"/>
-      <c r="U34" s="149"/>
-      <c r="V34" s="150"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="88"/>
     </row>
     <row r="35" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
+      <c r="B35" s="130"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="130"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
+      <c r="M35" s="130"/>
+      <c r="N35" s="130"/>
+      <c r="O35" s="130"/>
+      <c r="P35" s="130"/>
+      <c r="Q35" s="130"/>
+      <c r="R35" s="130"/>
+      <c r="S35" s="130"/>
+      <c r="T35" s="130"/>
+      <c r="U35" s="130"/>
+      <c r="V35" s="130"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GBOP26XcFiiC13xf/GH/cCwCz/IhnyIKKbn+zKTA4GYROX6yAJvMsw0cvBS9hcdsEhS08d8je9Rg0W5BlTwcrw==" saltValue="4XgZ2bzzA2rr2K5jYT3Lqw==" spinCount="100000" sheet="1" insertRows="0"/>
   <mergeCells count="82">
-    <mergeCell ref="A19:V19"/>
-    <mergeCell ref="A18:V18"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W20:W22"/>
+    <mergeCell ref="W23:W24"/>
+    <mergeCell ref="I23:U23"/>
+    <mergeCell ref="I21:U21"/>
+    <mergeCell ref="H24:V24"/>
+    <mergeCell ref="H22:V22"/>
+    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="A35:V35"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="A20:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H25:V25"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:V1"/>
+    <mergeCell ref="D4:V4"/>
+    <mergeCell ref="A2:C6"/>
+    <mergeCell ref="F5:V5"/>
+    <mergeCell ref="F2:V2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F6:V6"/>
+    <mergeCell ref="F3:V3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A26:V26"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="K7:R7"/>
     <mergeCell ref="A27:V34"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A10:D10"/>
@@ -5599,57 +5652,21 @@
     <mergeCell ref="K9:R9"/>
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="K11:R11"/>
-    <mergeCell ref="A26:V26"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:V1"/>
-    <mergeCell ref="D4:V4"/>
-    <mergeCell ref="A2:C6"/>
-    <mergeCell ref="F5:V5"/>
-    <mergeCell ref="F2:V2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F6:V6"/>
-    <mergeCell ref="F3:V3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A35:V35"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="A20:G24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H25:V25"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="W20:W22"/>
-    <mergeCell ref="W23:W24"/>
-    <mergeCell ref="I23:U23"/>
-    <mergeCell ref="I21:U21"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="A19:V19"/>
+    <mergeCell ref="A18:V18"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U11:V11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H23 V23">
@@ -6081,8 +6098,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6095,13 +6112,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A1" s="167" t="s">
+      <c r="A1" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="25.9" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -6111,69 +6128,69 @@
         <f>IF(NOT(ISBLANK(開発情報!A2)),開発情報!A2, "")</f>
         <v>1112</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="168"/>
+      <c r="D2" s="175"/>
       <c r="E2" s="44" t="str">
         <f>IF( NOT(ISBLANK(開発情報!F3)), 開発情報!F3, "" )</f>
         <v>Balloon Glide</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" ht="10.5" customHeight="1">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
+      <c r="A3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="166"/>
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="166"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
+      <c r="A7" s="173"/>
+      <c r="B7" s="173"/>
+      <c r="C7" s="173"/>
+      <c r="D7" s="173"/>
+      <c r="E7" s="173"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="170"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
+      <c r="A8" s="171"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="171"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169" t="s">
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="169"/>
+      <c r="E9" s="176"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="A10" s="6">
@@ -6191,65 +6208,65 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="170"/>
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
+      <c r="A11" s="171"/>
+      <c r="B11" s="171"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
     </row>
     <row r="12" spans="1:5" ht="63" customHeight="1">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="167" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
     </row>
     <row r="13" spans="1:5" ht="300" customHeight="1">
-      <c r="A13" s="174" t="s">
+      <c r="A13" s="172" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="175"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="176"/>
+      <c r="B13" s="169"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="170"/>
     </row>
     <row r="14" spans="1:5" ht="67.5" customHeight="1">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
     </row>
     <row r="15" spans="1:5" ht="300" customHeight="1">
-      <c r="A15" s="177" t="s">
+      <c r="A15" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="176"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="170"/>
     </row>
     <row r="16" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A16" s="172" t="s">
+      <c r="A16" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="172"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
     </row>
     <row r="17" spans="1:5" ht="251.25" customHeight="1">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="176"/>
+      <c r="B17" s="169"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="170"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
@@ -6261,6 +6278,13 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="S0ZrTzjw/twMvr7iIM3T0C489oMc1M0vZSsHlIiOWjFzgSREQBI+8eYy/Fi/9+yNXZ55f/YXULZcs4tADhnacg==" saltValue="myZW4jpSKHSr4gTU68YIWw==" spinCount="100000" sheet="1" formatCells="0" formatRows="0"/>
   <mergeCells count="14">
+    <mergeCell ref="A4:E7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A15:E15"/>
@@ -6268,13 +6292,6 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A4:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
